--- a/RIO_PARDO.xlsx
+++ b/RIO_PARDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F501D1B6-99F2-4D0C-BBF0-AFA9224D369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C99A81C-1C5E-4E3D-B4D2-88AC759E2EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1288,7 +1288,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{34913C5B-986C-4F07-A112-451EEEFB1332}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{DBB19184-4A54-441F-923F-BA413AF4412A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1318,10 +1318,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E393C56-C931-4323-B2DE-E78593A513DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF01F59-8F57-4F94-9122-628B594226BE}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1359,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCACDA5F-0ABB-4AAE-AE15-06BFA4C90615}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0AD44B-93F2-412D-AE92-C5F8DC16124B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1422,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279D38A2-35B8-46FF-87CD-1EAAA3939F9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7989037-7433-4B95-9130-7CEB6E1FD73C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1441,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAF9FA4-EE67-499B-DFC6-971D4343832E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C937458-914B-92A0-8DAA-A6F4736D9DCF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8399BEF6-92A4-BF4C-CAEC-F81F73386207}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003C72C7-5D68-30AA-3EAD-9F8F560E6AD6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1509,7 +1509,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB61EF6A-C147-F97D-7D49-208633679BD8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8DD8F2-464E-CD54-635A-22A7635F8B24}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1540,7 +1540,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A557A3-5C18-7080-CE8C-F39834FEE0A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D23EAC-F415-560E-E434-FDF5FA729BF4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7619322E-C146-9F14-5FC4-2D7E8AAB7B2D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEA0051-D786-B52D-0056-5DF06C9379CC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1614,7 +1614,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE98FC1-FDA2-44E6-B760-8BE055E0964A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75D3899-9D97-4E13-921D-80FB68F8100C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1652,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9CD4DF-0D18-44E0-A266-701C26175348}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FEE521-7CD1-4888-A8D5-A4201065B494}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1695,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C6E5EB-C252-454E-B9CB-282626B2B9ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C1D88E4-DB91-4B69-90BF-48EFDEDC3D8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +2008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB27BD6-FDCB-4116-A6BB-D71503E79DC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EE1E92-7DD6-471D-AF94-B3E857AC02EB}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/RIO_PARDO.xlsx
+++ b/RIO_PARDO.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C99A81C-1C5E-4E3D-B4D2-88AC759E2EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D405D7-D889-4C29-9005-38EF6F97BF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="TCA" sheetId="5" r:id="rId6"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="6" r:id="rId7"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="325">
   <si>
     <t>COMARCA</t>
   </si>
@@ -1002,12 +1001,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1268,27 +1261,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{DBB19184-4A54-441F-923F-BA413AF4412A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{52825363-B481-4D70-951B-A7DD956CC94C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1318,10 +1296,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF01F59-8F57-4F94-9122-628B594226BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7109E014-9C52-4073-BB7E-0F33805CC299}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1337,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0AD44B-93F2-412D-AE92-C5F8DC16124B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1418B914-0712-4426-872C-E6EE56B35DC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1400,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7989037-7433-4B95-9130-7CEB6E1FD73C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA27979-3026-4859-8453-15696CD28FB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1419,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C937458-914B-92A0-8DAA-A6F4736D9DCF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71FB10C-EE38-E60A-8BC1-03E8D3A8AF72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1490,7 +1468,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003C72C7-5D68-30AA-3EAD-9F8F560E6AD6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA94E9A-CAB0-CC9E-AE34-D0ED5178DD07}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1509,7 +1487,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8DD8F2-464E-CD54-635A-22A7635F8B24}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1C2F3A-94B0-5340-29C5-D9759FB670E3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1540,7 +1518,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D23EAC-F415-560E-E434-FDF5FA729BF4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A1B5D4-CBF8-E1F3-B276-0B2C1FCA108B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1571,7 +1549,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEA0051-D786-B52D-0056-5DF06C9379CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AEF22F-EB49-9C43-C4BC-FF3DFBA7FD87}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1614,7 +1592,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75D3899-9D97-4E13-921D-80FB68F8100C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795B3053-014A-426C-87DA-8085337769E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1630,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FEE521-7CD1-4888-A8D5-A4201065B494}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD1F671-6065-41E6-B287-B246C40184D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1673,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C1D88E4-DB91-4B69-90BF-48EFDEDC3D8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A41BEB-DA8C-4E91-B66B-7AB1D06D9B49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2008,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EE1E92-7DD6-471D-AF94-B3E857AC02EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F22C1F-2828-436F-94CC-1B54756EDFBA}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2020,98 +1998,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5814,52 +5792,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1" s="32">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" s="35">
-        <v>110</v>
-      </c>
-      <c r="C2" s="33">
-        <v>7.2741700833223117E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/RIO_PARDO.xlsx
+++ b/RIO_PARDO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43D405D7-D889-4C29-9005-38EF6F97BF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F222378-1021-4A02-A872-FD10C9525DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,7 +1266,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{52825363-B481-4D70-951B-A7DD956CC94C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A08298E6-662E-47CE-8DDF-AD8B4C595801}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1296,10 +1296,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7109E014-9C52-4073-BB7E-0F33805CC299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFB09D4-F40F-4CC2-8CE0-684F5AB6D20C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1418B914-0712-4426-872C-E6EE56B35DC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F32ED9-CD33-40FF-81CE-7D5AA94FEDED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,7 +1400,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA27979-3026-4859-8453-15696CD28FB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344E6600-C527-4ED9-96B0-20EE82E5B483}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1419,7 +1419,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71FB10C-EE38-E60A-8BC1-03E8D3A8AF72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF4DBE46-4A75-49D9-885D-7B485DFF4AE1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA94E9A-CAB0-CC9E-AE34-D0ED5178DD07}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E1FFC78-8574-6573-F7C7-550FC8E8A01D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1C2F3A-94B0-5340-29C5-D9759FB670E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD90C62-0EF0-0E29-6275-CA153BC7AB47}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1518,7 +1518,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A1B5D4-CBF8-E1F3-B276-0B2C1FCA108B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E219DBD5-59C1-CF36-19BA-60D879987B8A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AEF22F-EB49-9C43-C4BC-FF3DFBA7FD87}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE314BC-0F8C-2D78-D3E4-B68601EF2A5A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1592,7 +1592,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795B3053-014A-426C-87DA-8085337769E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B404699-D176-40C4-8FCF-084A7710C0A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1630,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD1F671-6065-41E6-B287-B246C40184D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A962D696-77DB-46D4-912E-1C911DDE9D0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,50 +1655,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A41BEB-DA8C-4E91-B66B-7AB1D06D9B49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1986,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F22C1F-2828-436F-94CC-1B54756EDFBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2908FCEF-15FF-4DC0-92BF-4C17ABEF13C6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
